--- a/data/trans_camb/P25_12-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_12-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>-0,11</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,94</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>6,17</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 2,92</t>
+          <t>-3,3; 3,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 3,3</t>
+          <t>-3,54; 3,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,2</t>
+          <t>-0,57; 6,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 4,64</t>
+          <t>-2,07; 5,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 3,1</t>
+          <t>-1,44; 5,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 11,91</t>
+          <t>-2,26; 4,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 2,84</t>
+          <t>-3,48; 3,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,39</t>
+          <t>0,58; 8,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,75; 8,09</t>
+          <t>1,85; 10,74</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,08; 7,06</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 3,11</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 2,73</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 6,43</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 6,59</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 4,85</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,77%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>46,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,63%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>56,22%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>-0,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>30,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>53,21%</t>
+          <t>32,77%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,33%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,14%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>35,95%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>26,83%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>15,52%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,44; 64,23</t>
+          <t>-40,14; 69,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 66,47</t>
+          <t>-40,28; 61,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 128,24</t>
+          <t>-8,29; 131,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,17; 38,31</t>
+          <t>-16,43; 68,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 26,12</t>
+          <t>-12,76; 59,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,61; 94,73</t>
+          <t>-13,92; 37,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 29,82</t>
+          <t>-21,21; 24,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 26,03</t>
+          <t>3,77; 70,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,08; 86,64</t>
+          <t>8,67; 64,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 35,18</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-15,87; 32,37</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-17,7; 29,17</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>9,2; 67,84</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,97; 51,3</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 32,97</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>-2,6</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,71</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 3,62</t>
+          <t>-1,92; 4,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 7,18</t>
+          <t>-0,74; 6,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 3,52</t>
+          <t>1,73; 9,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 5,48</t>
+          <t>-5,37; 3,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 3,62</t>
+          <t>0,61; 9,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 13,39</t>
+          <t>-4,37; 4,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,89</t>
+          <t>-5,34; 4,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 3,92</t>
+          <t>2,95; 13,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 6,79</t>
+          <t>-8,63; 4,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; 7,71</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 3,74</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,32; 3,84</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 10,01</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; 2,74</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 7,0</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>49,54%</t>
+          <t>48,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>104,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,56%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>-6,11%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>54,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>-11,12%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>66,58%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-10,75%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 107,27</t>
+          <t>-29,43; 126,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 186,45</t>
+          <t>-17,37; 178,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-55,9; 107,9</t>
+          <t>20,27; 259,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 44,48</t>
+          <t>-42,71; 48,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 30,49</t>
+          <t>4,03; 322,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 101,72</t>
+          <t>-24,73; 39,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 47,22</t>
+          <t>-29,57; 33,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 48,34</t>
+          <t>13,58; 100,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 82,62</t>
+          <t>-35,02; 21,5</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-31,81; 45,07</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-19,11; 43,62</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-20,21; 44,86</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>24,65; 117,04</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-30,9; 18,27</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-14,43; 64,33</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>6,86</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,3</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>9,87</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,66</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,55</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,15</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5,91</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,53</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7,71</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,97</t>
+          <t>-3,7; 7,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 8,16</t>
+          <t>-3,48; 7,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-0,09; 14,38</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; 14,2</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 11,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>2,06; 17,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 14,8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 18,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 9,43</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-3,03; 8,04</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,69; 11,29</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 9,23</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 13,98</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>58,7%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>69,39%</t>
+          <t>51,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>145,3%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>44,1%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>89,87%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>60,68%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>77,84%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>47,43%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>34,39%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>75,87%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>58,16%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>98,96%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,02; 372,75</t>
+          <t>-57,07; 361,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,61; 393,39</t>
+          <t>-54,15; 305,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-18,06; 679,15</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-23,87; 157,07</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 133,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>13,37; 238,7</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; 203,2</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 243,47</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-12,6; 146,19</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-24,03; 126,42</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 192,81</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-9,38; 178,38</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>17,72; 252,52</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,7 +1688,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,37 +1698,67 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,74</t>
+          <t>-1,37; 2,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,86</t>
+          <t>-1,05; 3,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,16</t>
+          <t>2,14; 7,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,34</t>
+          <t>-2,04; 3,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,78</t>
+          <t>0,07; 5,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,04; 10,96</t>
+          <t>-0,45; 4,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,73</t>
+          <t>-2,21; 3,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,54</t>
+          <t>3,41; 9,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,47</t>
+          <t>0,03; 6,95</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 6,01</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 3,15</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 2,58</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>3,56; 7,54</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,09; 4,54</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,1; 4,82</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>55,45%</t>
+          <t>76,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>52,16%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>16,47%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>13,42%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>53,64%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 63,21</t>
+          <t>-19,78; 64,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 87,57</t>
+          <t>-14,8; 79,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,45; 111,76</t>
+          <t>30,3; 148,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 33,66</t>
+          <t>-17,29; 43,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 21,81</t>
+          <t>0,16; 73,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,79; 83,29</t>
+          <t>-2,84; 37,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 29,73</t>
+          <t>-14,27; 24,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 27,54</t>
+          <t>21,7; 71,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,73; 80,83</t>
+          <t>0,25; 36,29</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 30,14</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 33,18</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-6,9; 27,16</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>32,2; 80,42</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 31,88</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 33,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
